--- a/data/trans_dic/P12A1_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación  &gt;=60 años</t>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>74,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>77,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>69,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,58; 72,07</t>
+          <t>5,26; 17,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,18; 66,31</t>
+          <t>7,47; 16,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,53; 73,4</t>
+          <t>11,49; 20,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,09; 63,15</t>
+          <t>5,5; 17,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,1; 85,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,66; 85,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,81; 82,78</t>
+          <t>12,59; 26,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,47; 72,99</t>
+          <t>12,33; 21,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,52; 75,87</t>
+          <t>14,87; 23,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,1; 76,66</t>
+          <t>11,72; 24,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62,57; 76,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,14; 65,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 19,72</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 17,57</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 20,86</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 19,31</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,25; 48,33</t>
+          <t>4,67; 10,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,57; 48,03</t>
+          <t>3,76; 7,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,52; 42,29</t>
+          <t>3,75; 7,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,66; 38,53</t>
+          <t>4,11; 9,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,22; 59,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,79; 55,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,01; 52,51</t>
+          <t>4,67; 12,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,31; 46,21</t>
+          <t>4,02; 9,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,96; 51,77</t>
+          <t>3,75; 9,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 48,7</t>
+          <t>4,67; 9,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,81; 43,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,34; 38,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 9,65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 7,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 7,19</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,17; 9,12</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 68,76</t>
+          <t>0,71; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,19; 58,32</t>
+          <t>1,53; 4,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,55; 58,2</t>
+          <t>1,99; 5,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 52,07</t>
+          <t>2,6; 8,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,93; 65,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 53,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,1; 62,07</t>
+          <t>3,63; 8,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,94; 58,59</t>
+          <t>2,55; 6,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,87; 60,38</t>
+          <t>3,25; 7,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,63; 50,37</t>
+          <t>2,01; 6,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,52; 56,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,2; 49,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 5,97</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 4,75</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 5,44</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 6,29</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,89; 52,16</t>
+          <t>4,26; 9,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,14; 49,76</t>
+          <t>3,85; 10,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,81; 51,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 44,88</t>
+          <t>3,9; 9,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,43; 65,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,86; 65,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,79; 62,85</t>
+          <t>7,01; 12,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,81; 55,72</t>
+          <t>7,65; 14,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,84; 56,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,99; 56,07</t>
+          <t>8,07; 17,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,5; 55,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,91; 47,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 10,0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 10,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 12,39</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 7,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 7,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 8,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 8,33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,5; 11,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 9,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 10,54</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 11,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 8,86</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 8,09</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 8,93</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,69; 9,57</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34195</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>61805</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>114588</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44568</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>78055</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>103486</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>171167</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>112268</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>112250</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>165291</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>285754</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>156836</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17827; 58048</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39317; 88948</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>83128; 146763</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23904; 75616</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>53082; 110855</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>78745; 134909</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>133668; 208325</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75638; 159272</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>74302; 150017</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>130587; 204648</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>235560; 338353</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>107178; 208502</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67043</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66517</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>85748</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70144</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>72156</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71640</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>86196</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>77199</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>139199</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>138157</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>171944</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>147343</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43575; 95304</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45412; 94712</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>60877; 118735</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43839; 105720</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46672; 121444</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49581; 111944</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>56581; 140539</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>50132; 107149</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100807; 186425</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>104151; 180933</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>131935; 225199</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>110761; 195356</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13904</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24294</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37004</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>38124</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43874</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36424</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56416</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35694</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>57778</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>60717</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>93419</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>73819</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5022; 35553</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12911; 41570</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21768; 58691</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21441; 66713</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27895; 68179</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23981; 59978</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37754; 81421</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17996; 61149</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>35448; 88431</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>41238; 84910</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>65091; 122601</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>49617; 108418</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92729</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55521</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71449</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>133452</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80250</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>119300</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>226181</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>135771</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>190750</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>62120; 141754</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33052; 85732</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42701; 108947</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>97947; 175651</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58352; 110520</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>79070; 167796</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>175148; 285443</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>99545; 178111</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>141315; 257230</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>207871</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>208136</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>237340</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>224286</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>327537</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>291800</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>313778</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>344462</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>535408</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>499936</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>551118</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>568747</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>163896; 268146</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>169069; 252328</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>192954; 290424</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>173557; 285075</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>269116; 401267</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>243404; 344796</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>261012; 376144</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>278315; 426218</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>465186; 622579</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>435296; 567663</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>477370; 625557</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>469579; 671646</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
